--- a/topo/allSFCList_2.xlsx
+++ b/topo/allSFCList_2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>6,7,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,10 @@
   </si>
   <si>
     <t>12,13,14,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,7 +382,7 @@
         <v>90</v>
       </c>
       <c r="C1">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -412,12 +416,29 @@
         <v>120</v>
       </c>
       <c r="C3">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>43706</v>
       </c>
     </row>
